--- a/AutomationTestSuite/target/test-classes/fai_import-sales-template.xlsx
+++ b/AutomationTestSuite/target/test-classes/fai_import-sales-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipse-workspace\AutomationTestSuite\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7E7FF0-33B9-4F4B-A533-F3BF2DB87529}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8DA1A1-7135-416A-A793-6521974115DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,19 +553,19 @@
     <t>testapi</t>
   </si>
   <si>
-    <t>Aug001</t>
-  </si>
-  <si>
-    <t>Aug002</t>
-  </si>
-  <si>
-    <t>Aug003</t>
-  </si>
-  <si>
-    <t>Aug004</t>
-  </si>
-  <si>
-    <t>Aug005</t>
+    <t>Dec24_001</t>
+  </si>
+  <si>
+    <t>Dec24_002</t>
+  </si>
+  <si>
+    <t>Dec24_003</t>
+  </si>
+  <si>
+    <t>Dec24_004</t>
+  </si>
+  <si>
+    <t>Dec24_005</t>
   </si>
 </sst>
 </file>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1018,10 +1018,10 @@
         <v>17</v>
       </c>
       <c r="D2" s="2">
-        <v>45505</v>
+        <v>45627</v>
       </c>
       <c r="E2" s="2">
-        <v>45505</v>
+        <v>45627</v>
       </c>
       <c r="F2" t="s">
         <v>172</v>
@@ -1053,10 +1053,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="2">
-        <v>45506</v>
+        <v>45628</v>
       </c>
       <c r="E3" s="2">
-        <v>45506</v>
+        <v>45628</v>
       </c>
       <c r="F3" t="s">
         <v>173</v>
@@ -1087,10 +1087,10 @@
         <v>17</v>
       </c>
       <c r="D4" s="2">
-        <v>45507</v>
+        <v>45629</v>
       </c>
       <c r="E4" s="2">
-        <v>45507</v>
+        <v>45629</v>
       </c>
       <c r="F4" t="s">
         <v>174</v>
@@ -1119,10 +1119,10 @@
         <v>17</v>
       </c>
       <c r="D5" s="2">
-        <v>45508</v>
+        <v>45630</v>
       </c>
       <c r="E5" s="2">
-        <v>45508</v>
+        <v>45630</v>
       </c>
       <c r="F5" t="s">
         <v>175</v>
@@ -1151,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="2">
-        <v>45509</v>
+        <v>45631</v>
       </c>
       <c r="E6" s="2">
-        <v>45509</v>
+        <v>45631</v>
       </c>
       <c r="F6" t="s">
         <v>176</v>
